--- a/data/trans_orig/P1418-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1418-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>36441</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26941</v>
+        <v>26557</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50106</v>
+        <v>50507</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05250727171960665</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03881876821942313</v>
+        <v>0.03826621686462452</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07219731746842098</v>
+        <v>0.07277516521785839</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>59</v>
@@ -765,19 +765,19 @@
         <v>58965</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>45294</v>
+        <v>45873</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>74713</v>
+        <v>75750</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0856618538548462</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06580110163429638</v>
+        <v>0.06664239805097487</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1085391688604922</v>
+        <v>0.1100456713250577</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>96</v>
@@ -786,19 +786,19 @@
         <v>95406</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>78766</v>
+        <v>78136</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>115087</v>
+        <v>115730</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06901667494522798</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05697901628796956</v>
+        <v>0.05652365327139363</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08325411235836667</v>
+        <v>0.08371909174755159</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>657571</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>643906</v>
+        <v>643505</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>667071</v>
+        <v>667455</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9474927282803933</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9278026825315793</v>
+        <v>0.9272248347821412</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9611812317805769</v>
+        <v>0.9617337831353754</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>637</v>
@@ -836,19 +836,19 @@
         <v>629386</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>613638</v>
+        <v>612601</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>643057</v>
+        <v>642478</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9143381461451539</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8914608311395075</v>
+        <v>0.8899543286749423</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9341988983657035</v>
+        <v>0.9333576019490252</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1283</v>
@@ -857,19 +857,19 @@
         <v>1286957</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1267276</v>
+        <v>1266633</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1303597</v>
+        <v>1304227</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.930983325054772</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9167458876416336</v>
+        <v>0.9162809082524486</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9430209837120305</v>
+        <v>0.9434763467286066</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>54273</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40234</v>
+        <v>41735</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>69151</v>
+        <v>69848</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05642817067488635</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.041832471382469</v>
+        <v>0.04339243510319025</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07189719567571919</v>
+        <v>0.07262212656342779</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>86</v>
@@ -982,19 +982,19 @@
         <v>93523</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>76050</v>
+        <v>74985</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>112809</v>
+        <v>111992</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09657566273329295</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0785322335550671</v>
+        <v>0.07743284816708219</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1164913126924737</v>
+        <v>0.115647035989218</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>139</v>
@@ -1003,19 +1003,19 @@
         <v>147796</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>122639</v>
+        <v>125256</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>170937</v>
+        <v>173061</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07657048355964106</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06353735429724493</v>
+        <v>0.06489307486952693</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08855951205861863</v>
+        <v>0.08965997104553879</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>907527</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>892649</v>
+        <v>891952</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>921566</v>
+        <v>920065</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9435718293251136</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9281028043242808</v>
+        <v>0.9273778734365723</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9581675286175311</v>
+        <v>0.9566075648968098</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>822</v>
@@ -1053,19 +1053,19 @@
         <v>874870</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>855584</v>
+        <v>856401</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>892343</v>
+        <v>893408</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.903424337266707</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8835086873075262</v>
+        <v>0.8843529640107819</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9214677664449328</v>
+        <v>0.9225671518329178</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1665</v>
@@ -1074,19 +1074,19 @@
         <v>1782397</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1759256</v>
+        <v>1757132</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1807554</v>
+        <v>1804937</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.923429516440359</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9114404879413814</v>
+        <v>0.9103400289544612</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9364626457027552</v>
+        <v>0.9351069251304731</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>35242</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24410</v>
+        <v>25101</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>48604</v>
+        <v>48847</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05194027734203287</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03597548310540614</v>
+        <v>0.0369946987428651</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07163348447824283</v>
+        <v>0.0719915237607508</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>78</v>
@@ -1199,19 +1199,19 @@
         <v>77734</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>64153</v>
+        <v>60831</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>94217</v>
+        <v>95058</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1136727967765291</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09381298087913002</v>
+        <v>0.08895544935183973</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1377768779243872</v>
+        <v>0.1390063764115954</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>112</v>
@@ -1220,19 +1220,19 @@
         <v>112976</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>93297</v>
+        <v>92905</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>132696</v>
+        <v>133934</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08292734495985561</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06848226664540276</v>
+        <v>0.06819437580119096</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09740255586902308</v>
+        <v>0.09831118981250044</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>643267</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>629905</v>
+        <v>629662</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>654099</v>
+        <v>653408</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9480597226579671</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9283665155217571</v>
+        <v>0.9280084762392492</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9640245168945938</v>
+        <v>0.9630053012571349</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>618</v>
@@ -1270,19 +1270,19 @@
         <v>606107</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>589624</v>
+        <v>588783</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>619688</v>
+        <v>623010</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8863272032234709</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8622231220756129</v>
+        <v>0.8609936235884048</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.90618701912087</v>
+        <v>0.9110445506481604</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1225</v>
@@ -1291,19 +1291,19 @@
         <v>1249374</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1229654</v>
+        <v>1228416</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1269053</v>
+        <v>1269445</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9170726550401443</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9025974441309766</v>
+        <v>0.9016888101874996</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9315177333545972</v>
+        <v>0.9318056241988086</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>53127</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>40375</v>
+        <v>41024</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>67414</v>
+        <v>67229</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05638511325257313</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04285051475768235</v>
+        <v>0.04353927558893458</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0715477280212557</v>
+        <v>0.07135182080535206</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>108</v>
@@ -1416,19 +1416,19 @@
         <v>112929</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>93944</v>
+        <v>95131</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>133020</v>
+        <v>133493</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1087310287312293</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09045180221847082</v>
+        <v>0.09159421739163318</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1280752452180912</v>
+        <v>0.1285300687968149</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>167</v>
@@ -1437,19 +1437,19 @@
         <v>166057</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>142854</v>
+        <v>143121</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>192092</v>
+        <v>191800</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08383168040270644</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07211785660201592</v>
+        <v>0.07225286396842291</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09697530389371938</v>
+        <v>0.09682795014979986</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>889095</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>874808</v>
+        <v>874993</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>901847</v>
+        <v>901198</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9436148867474269</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.928452271978744</v>
+        <v>0.9286481791946479</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9571494852423176</v>
+        <v>0.9564607244110654</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>889</v>
@@ -1487,19 +1487,19 @@
         <v>925683</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>905592</v>
+        <v>905119</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>944668</v>
+        <v>943481</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8912689712687707</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8719247547819087</v>
+        <v>0.8714699312031851</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9095481977815291</v>
+        <v>0.9084057826083668</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1824</v>
@@ -1508,19 +1508,19 @@
         <v>1814777</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1788742</v>
+        <v>1789034</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1837980</v>
+        <v>1837713</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9161683195972936</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9030246961062804</v>
+        <v>0.9031720498502001</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.927882143397984</v>
+        <v>0.9277471360315769</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>179083</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>153822</v>
+        <v>154262</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>206786</v>
+        <v>208403</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05465593801256361</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04694640332685313</v>
+        <v>0.04708071442919359</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06311103665684875</v>
+        <v>0.06360439387234765</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>331</v>
@@ -1633,19 +1633,19 @@
         <v>343152</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>307611</v>
+        <v>309388</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>379630</v>
+        <v>380640</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1015484120081016</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09103075032187732</v>
+        <v>0.09155668408846129</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1123433959369891</v>
+        <v>0.1126422731976497</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>514</v>
@@ -1654,19 +1654,19 @@
         <v>522235</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>475510</v>
+        <v>477050</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>564800</v>
+        <v>565543</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07846379512845618</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07144356442974042</v>
+        <v>0.07167498521495064</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08485909684550449</v>
+        <v>0.08497066717122505</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3097460</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3069757</v>
+        <v>3068140</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3122721</v>
+        <v>3122281</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9453440619874364</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9368889633431512</v>
+        <v>0.9363956061276524</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9530535966731468</v>
+        <v>0.9529192855708064</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2966</v>
@@ -1704,19 +1704,19 @@
         <v>3036045</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2999567</v>
+        <v>2998557</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3071586</v>
+        <v>3069809</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8984515879918984</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8876566040630108</v>
+        <v>0.8873577268023503</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9089692496781228</v>
+        <v>0.9084433159115384</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5997</v>
@@ -1725,19 +1725,19 @@
         <v>6133506</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6090941</v>
+        <v>6090198</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6180231</v>
+        <v>6178691</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9215362048715439</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9151409031544956</v>
+        <v>0.915029332828775</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9285564355702596</v>
+        <v>0.9283250147850494</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>21195</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13278</v>
+        <v>13381</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31501</v>
+        <v>31585</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0301296366561577</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01887480476414813</v>
+        <v>0.01902215340813086</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04477938681109035</v>
+        <v>0.04489895672524777</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>63</v>
@@ -2090,19 +2090,19 @@
         <v>69979</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>54208</v>
+        <v>53477</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>88264</v>
+        <v>86500</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1003937693871292</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07776719569332111</v>
+        <v>0.07671874205281633</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1266247014023474</v>
+        <v>0.1240937021677665</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>84</v>
@@ -2111,19 +2111,19 @@
         <v>91175</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>72517</v>
+        <v>73034</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>111429</v>
+        <v>112215</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0651006827017042</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05177854356261936</v>
+        <v>0.05214798263888625</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0795628585677922</v>
+        <v>0.0801235544411102</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>682274</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>671968</v>
+        <v>671884</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>690191</v>
+        <v>690088</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9698703633438424</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9552206131889094</v>
+        <v>0.955101043274752</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9811251952358518</v>
+        <v>0.9809778465918692</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>587</v>
@@ -2161,19 +2161,19 @@
         <v>627071</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>608786</v>
+        <v>610550</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>642842</v>
+        <v>643573</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8996062306128708</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8733752985976527</v>
+        <v>0.8759062978322335</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.922232804306679</v>
+        <v>0.9232812579471837</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1240</v>
@@ -2182,19 +2182,19 @@
         <v>1309344</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1289090</v>
+        <v>1288304</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1328002</v>
+        <v>1327485</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9348993172982958</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9204371414322077</v>
+        <v>0.9198764455588897</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9482214564373806</v>
+        <v>0.9478520173611137</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>37462</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27335</v>
+        <v>26190</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>51965</v>
+        <v>52916</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03680114266622806</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02685338790762681</v>
+        <v>0.0257284893480518</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05104869105946316</v>
+        <v>0.05198324846336072</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>96</v>
@@ -2307,19 +2307,19 @@
         <v>105279</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>87006</v>
+        <v>87231</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>125889</v>
+        <v>126503</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1023148811017794</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08455621528546201</v>
+        <v>0.08477508013565908</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1223444465578383</v>
+        <v>0.1229414497786924</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>131</v>
@@ -2328,19 +2328,19 @@
         <v>142741</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>120251</v>
+        <v>122185</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>170641</v>
+        <v>167131</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06973446462994727</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05874727342701411</v>
+        <v>0.05969198572409388</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08336492289084642</v>
+        <v>0.08164972925051832</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>980485</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>965982</v>
+        <v>965031</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>990612</v>
+        <v>991757</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.963198857333772</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9489513089405367</v>
+        <v>0.9480167515366391</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9731466120923732</v>
+        <v>0.9742715106519482</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>842</v>
@@ -2378,19 +2378,19 @@
         <v>923694</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>903084</v>
+        <v>902470</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>941967</v>
+        <v>941742</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8976851188982207</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8776555534421624</v>
+        <v>0.8770585502213077</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.915443784714538</v>
+        <v>0.915224919864341</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1743</v>
@@ -2399,19 +2399,19 @@
         <v>1904180</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1876280</v>
+        <v>1879790</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1926670</v>
+        <v>1924736</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9302655353700527</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9166350771091535</v>
+        <v>0.9183502707494818</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9412527265729859</v>
+        <v>0.9403080142759063</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>23964</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14527</v>
+        <v>13926</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37240</v>
+        <v>37713</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03163076457700033</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01917457219361697</v>
+        <v>0.01838170293260618</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04915368730673401</v>
+        <v>0.04977780638677837</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>54</v>
@@ -2524,19 +2524,19 @@
         <v>60478</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>45950</v>
+        <v>46429</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>79263</v>
+        <v>77556</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07781820697825582</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05912466386173663</v>
+        <v>0.05974113496561776</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1019889641920041</v>
+        <v>0.09979238350655273</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>73</v>
@@ -2545,19 +2545,19 @@
         <v>84442</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>66399</v>
+        <v>66915</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>105286</v>
+        <v>105429</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05501866027432725</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04326253888517639</v>
+        <v>0.04359845410174001</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06859928012924603</v>
+        <v>0.06869231025802983</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>733659</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>720383</v>
+        <v>719910</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>743096</v>
+        <v>743697</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9683692354229997</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9508463126932665</v>
+        <v>0.9502221936132216</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9808254278063832</v>
+        <v>0.9816182970673938</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>651</v>
@@ -2595,19 +2595,19 @@
         <v>716696</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>697911</v>
+        <v>699618</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>731224</v>
+        <v>730745</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9221817930217442</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8980110358079956</v>
+        <v>0.9002076164934473</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9408753361382632</v>
+        <v>0.9402588650343823</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1321</v>
@@ -2616,19 +2616,19 @@
         <v>1450355</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1429511</v>
+        <v>1429368</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1468398</v>
+        <v>1467882</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9449813397256728</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.931400719870754</v>
+        <v>0.9313076897419702</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9567374611148239</v>
+        <v>0.95640154589826</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>24270</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15288</v>
+        <v>15317</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35180</v>
+        <v>35690</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02560864570472341</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01613142630146493</v>
+        <v>0.01616195634445742</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03712002352733999</v>
+        <v>0.03765852132524792</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>105</v>
@@ -2741,19 +2741,19 @@
         <v>110095</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>91580</v>
+        <v>91906</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>133855</v>
+        <v>134629</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1047674807145314</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08714778472495534</v>
+        <v>0.08745814378828733</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1273768028302536</v>
+        <v>0.1281138597382168</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>128</v>
@@ -2762,19 +2762,19 @@
         <v>134366</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>112650</v>
+        <v>111987</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>160131</v>
+        <v>156321</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06723011753344552</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05636485433061191</v>
+        <v>0.05603280709246024</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0801215897213132</v>
+        <v>0.07821527505342864</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>923469</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>912559</v>
+        <v>912049</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>932451</v>
+        <v>932422</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9743913542952766</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9628799764726594</v>
+        <v>0.9623414786747518</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.983868573698535</v>
+        <v>0.9838380436555425</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>897</v>
@@ -2812,19 +2812,19 @@
         <v>940760</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>917000</v>
+        <v>916226</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>959275</v>
+        <v>958949</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8952325192854685</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8726231971697462</v>
+        <v>0.8718861402617831</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9128522152750446</v>
+        <v>0.9125418562117127</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1784</v>
@@ -2833,19 +2833,19 @@
         <v>1864228</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1838463</v>
+        <v>1842273</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1885944</v>
+        <v>1886607</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9327698824665545</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9198784102786867</v>
+        <v>0.921784724946571</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9436351456693881</v>
+        <v>0.9439671929075397</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>106891</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>87185</v>
+        <v>88418</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>130182</v>
+        <v>129536</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0311929701840058</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02544235998302219</v>
+        <v>0.02580217207848792</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03798949828198563</v>
+        <v>0.03780106521180109</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>318</v>
@@ -2958,19 +2958,19 @@
         <v>345832</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>309705</v>
+        <v>309299</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>383177</v>
+        <v>380275</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0973065232796954</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08714138554950125</v>
+        <v>0.08702727734588986</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1078140056600563</v>
+        <v>0.1069975834415899</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>416</v>
@@ -2979,19 +2979,19 @@
         <v>452724</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>414794</v>
+        <v>410474</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>503035</v>
+        <v>497764</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06485243115705056</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05941895951808796</v>
+        <v>0.05880016043080721</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07205945094544505</v>
+        <v>0.0713043782502495</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3319888</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3296597</v>
+        <v>3297243</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3339594</v>
+        <v>3338361</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9688070298159942</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9620105017180144</v>
+        <v>0.9621989347881988</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9745576400169778</v>
+        <v>0.9741978279215121</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2977</v>
@@ -3029,19 +3029,19 @@
         <v>3208220</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3170875</v>
+        <v>3173777</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3244347</v>
+        <v>3244753</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9026934767203046</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8921859943399437</v>
+        <v>0.89300241655841</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.912858614450499</v>
+        <v>0.9129727226541098</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6088</v>
@@ -3050,19 +3050,19 @@
         <v>6528107</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6477796</v>
+        <v>6483067</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6566037</v>
+        <v>6570357</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9351475688429495</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9279405490545553</v>
+        <v>0.9286956217497506</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9405810404819122</v>
+        <v>0.9411998395691928</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>22889</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15742</v>
+        <v>14621</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34156</v>
+        <v>33929</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.033919421318355</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02332910718441916</v>
+        <v>0.02166656003649057</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05061654549575852</v>
+        <v>0.05028060655407706</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>49</v>
@@ -3415,19 +3415,19 @@
         <v>52516</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>39426</v>
+        <v>39485</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>67970</v>
+        <v>69152</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07805090150027258</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05859711174578606</v>
+        <v>0.05868478396197706</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1010193061252411</v>
+        <v>0.1027765221425971</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>72</v>
@@ -3436,19 +3436,19 @@
         <v>75405</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>60008</v>
+        <v>59325</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>93230</v>
+        <v>94592</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05595305269223718</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04452849680546676</v>
+        <v>0.04402171801299234</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06917995727677781</v>
+        <v>0.07019125484561878</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>651911</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>640644</v>
+        <v>640871</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>659058</v>
+        <v>660179</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.966080578681645</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.949383454504241</v>
+        <v>0.949719393445923</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9766708928155808</v>
+        <v>0.9783334399635095</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>617</v>
@@ -3486,19 +3486,19 @@
         <v>620323</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>604869</v>
+        <v>603687</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>633413</v>
+        <v>633354</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9219490984997274</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.898980693874759</v>
+        <v>0.8972234778574026</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9414028882542145</v>
+        <v>0.9413152160380229</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1246</v>
@@ -3507,19 +3507,19 @@
         <v>1272234</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1254409</v>
+        <v>1253047</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1287631</v>
+        <v>1288314</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9440469473077628</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9308200427232223</v>
+        <v>0.9298087451543815</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9554715031945336</v>
+        <v>0.9559782819870077</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>24548</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16567</v>
+        <v>16381</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35607</v>
+        <v>36110</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02400916649527157</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01620348724658615</v>
+        <v>0.0160216429044288</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03482614916141496</v>
+        <v>0.03531780809744297</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>57</v>
@@ -3632,19 +3632,19 @@
         <v>65470</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>50607</v>
+        <v>49337</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>84587</v>
+        <v>81767</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06277578293983312</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04852438194421579</v>
+        <v>0.04730654674036183</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08110663905445849</v>
+        <v>0.07840211759844315</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>83</v>
@@ -3653,19 +3653,19 @@
         <v>90017</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>71668</v>
+        <v>72123</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>109831</v>
+        <v>109616</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04358469892692463</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03470044719091501</v>
+        <v>0.03492077410818235</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05317805871992226</v>
+        <v>0.05307375773180858</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>997883</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>986824</v>
+        <v>986321</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1005864</v>
+        <v>1006050</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9759908335047285</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9651738508385852</v>
+        <v>0.9646821919025571</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.983796512753414</v>
+        <v>0.9839783570955712</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>920</v>
@@ -3703,19 +3703,19 @@
         <v>977443</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>958326</v>
+        <v>961146</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>992306</v>
+        <v>993576</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9372242170601669</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9188933609455415</v>
+        <v>0.9215978824015572</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9514756180557842</v>
+        <v>0.9526934532596385</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1845</v>
@@ -3724,19 +3724,19 @@
         <v>1975327</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1955513</v>
+        <v>1955728</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1993676</v>
+        <v>1993221</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9564153010730754</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9468219412800777</v>
+        <v>0.9469262422681914</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.965299552809085</v>
+        <v>0.9650792258918176</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>17492</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9920</v>
+        <v>9951</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27980</v>
+        <v>26793</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02302945051526761</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01306069272465307</v>
+        <v>0.01310158241307808</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0368375238409145</v>
+        <v>0.03527423836399717</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>49</v>
@@ -3849,19 +3849,19 @@
         <v>59155</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>44184</v>
+        <v>44744</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>77068</v>
+        <v>77624</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07535509900849137</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05628392595683587</v>
+        <v>0.05699838259022436</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09817399196541669</v>
+        <v>0.09888292099661627</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>66</v>
@@ -3870,19 +3870,19 @@
         <v>76647</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>60455</v>
+        <v>59737</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>96702</v>
+        <v>96405</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0496235097763725</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03914037943774928</v>
+        <v>0.03867538165878113</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06260821641366256</v>
+        <v>0.06241571894233068</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>742060</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>731572</v>
+        <v>732759</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>749632</v>
+        <v>749601</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9769705494847324</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9631624761590855</v>
+        <v>0.964725761636003</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9869393072753468</v>
+        <v>0.986898417586922</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>687</v>
@@ -3920,19 +3920,19 @@
         <v>725856</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>707943</v>
+        <v>707387</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>740827</v>
+        <v>740267</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9246449009915086</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9018260080345835</v>
+        <v>0.9011170790033837</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9437160740431642</v>
+        <v>0.9430016174097757</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1366</v>
@@ -3941,19 +3941,19 @@
         <v>1467916</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1447861</v>
+        <v>1448158</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1484108</v>
+        <v>1484826</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9503764902236275</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9373917835863372</v>
+        <v>0.9375842810576691</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9608596205622506</v>
+        <v>0.9613246183412184</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>16783</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9535</v>
+        <v>10040</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26099</v>
+        <v>27081</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01790092528826358</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01017026822996518</v>
+        <v>0.01070820316567998</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0278371516697069</v>
+        <v>0.02888462228696864</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>66</v>
@@ -4066,19 +4066,19 @@
         <v>75983</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>60479</v>
+        <v>58936</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>97185</v>
+        <v>94139</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07279588506629883</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05794214098830607</v>
+        <v>0.05646370986787961</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09310876982172274</v>
+        <v>0.09019042951269594</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>82</v>
@@ -4087,19 +4087,19 @@
         <v>92766</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>74557</v>
+        <v>74209</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>115800</v>
+        <v>115444</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04681975449659029</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03762924018512123</v>
+        <v>0.03745381054022093</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0584451356291345</v>
+        <v>0.05826545231513335</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>920784</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>911468</v>
+        <v>910486</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>928032</v>
+        <v>927527</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9820990747117364</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9721628483302931</v>
+        <v>0.9711153777130314</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9898297317700347</v>
+        <v>0.98929179683432</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>893</v>
@@ -4137,19 +4137,19 @@
         <v>967796</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>946594</v>
+        <v>949640</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>983300</v>
+        <v>984843</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9272041149337011</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9068912301782772</v>
+        <v>0.909809570487304</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.942057859011694</v>
+        <v>0.9435362901321205</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1809</v>
@@ -4158,19 +4158,19 @@
         <v>1888580</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1865546</v>
+        <v>1865902</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1906789</v>
+        <v>1907137</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9531802455034097</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9415548643708656</v>
+        <v>0.9417345476848665</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9623707598148789</v>
+        <v>0.962546189459779</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>81712</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>65363</v>
+        <v>63606</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>103098</v>
+        <v>100061</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02407292215603704</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01925639087437507</v>
+        <v>0.01873875751170737</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03037327066976976</v>
+        <v>0.02947860663555106</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>221</v>
@@ -4283,19 +4283,19 @@
         <v>253123</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>216945</v>
+        <v>220594</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>282466</v>
+        <v>286948</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07141198167493285</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06120543468530249</v>
+        <v>0.06223484068968935</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07969049438685875</v>
+        <v>0.08095498076283243</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>303</v>
@@ -4304,19 +4304,19 @@
         <v>334835</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>299162</v>
+        <v>302318</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>373557</v>
+        <v>373398</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04825477660544995</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04311381340881379</v>
+        <v>0.04356867484366349</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05383527573786068</v>
+        <v>0.05381226858868261</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3312638</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3291252</v>
+        <v>3294289</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3328987</v>
+        <v>3330744</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9759270778439629</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9696267293302313</v>
+        <v>0.9705213933644494</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9807436091256252</v>
+        <v>0.9812612424882931</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3117</v>
@@ -4354,19 +4354,19 @@
         <v>3291419</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3262076</v>
+        <v>3257594</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3327597</v>
+        <v>3323948</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9285880183250672</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.920309505613141</v>
+        <v>0.9190450192371673</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9387945653146975</v>
+        <v>0.9377651593103103</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6266</v>
@@ -4375,19 +4375,19 @@
         <v>6604057</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6565335</v>
+        <v>6565494</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6639730</v>
+        <v>6636574</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.95174522339455</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9461647242621393</v>
+        <v>0.9461877314113173</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9568861865911862</v>
+        <v>0.9564313251563364</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>31134</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22194</v>
+        <v>22391</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>43389</v>
+        <v>42658</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04507573071082042</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03213267130949909</v>
+        <v>0.03241699870783293</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06281861512708953</v>
+        <v>0.06175944180441916</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>144</v>
@@ -4740,19 +4740,19 @@
         <v>69082</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>56915</v>
+        <v>58547</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>81584</v>
+        <v>81901</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09431848330180012</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07770572061012511</v>
+        <v>0.0799341291304462</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1113872018291715</v>
+        <v>0.1118204941223992</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>189</v>
@@ -4761,19 +4761,19 @@
         <v>100217</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>84840</v>
+        <v>86787</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>114708</v>
+        <v>118192</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.07041902250923805</v>
+        <v>0.07041902250923807</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05961438120405309</v>
+        <v>0.06098241148763159</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.080601995910511</v>
+        <v>0.08304977651642158</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>659576</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>647321</v>
+        <v>648052</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>668516</v>
+        <v>668319</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9549242692891797</v>
+        <v>0.9549242692891795</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9371813848729103</v>
+        <v>0.9382405581955809</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9678673286905008</v>
+        <v>0.9675830012921669</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1093</v>
@@ -4811,19 +4811,19 @@
         <v>663355</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>650853</v>
+        <v>650536</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>675522</v>
+        <v>673890</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9056815166981999</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8886127981708285</v>
+        <v>0.8881795058776008</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.922294279389875</v>
+        <v>0.9200658708695537</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1778</v>
@@ -4832,19 +4832,19 @@
         <v>1322930</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1308439</v>
+        <v>1304955</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1338307</v>
+        <v>1336360</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9295809774907619</v>
+        <v>0.929580977490762</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.919398004089489</v>
+        <v>0.9169502234835786</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.940385618795947</v>
+        <v>0.9390175885123687</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>41198</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>31251</v>
+        <v>31785</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>54754</v>
+        <v>54757</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03932931958140289</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02983376293512268</v>
+        <v>0.03034292045356201</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05227018678646006</v>
+        <v>0.0522726783462021</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>158</v>
@@ -4957,19 +4957,19 @@
         <v>89928</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>77400</v>
+        <v>76867</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>106270</v>
+        <v>106299</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.08419819891582304</v>
+        <v>0.08419819891582306</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07246817435540402</v>
+        <v>0.07196904389132798</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09949900366679144</v>
+        <v>0.09952606294658582</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>215</v>
@@ -4978,19 +4978,19 @@
         <v>131126</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>114176</v>
+        <v>113890</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>149748</v>
+        <v>149925</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.06198152707579068</v>
+        <v>0.06198152707579069</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05396932547013097</v>
+        <v>0.05383391359528818</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07078342819596987</v>
+        <v>0.07086718795911415</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>1006321</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>992765</v>
+        <v>992762</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1016268</v>
+        <v>1015734</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.960670680418597</v>
+        <v>0.9606706804185969</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.94772981321354</v>
+        <v>0.9477273216537979</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9701662370648773</v>
+        <v>0.969657079546438</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1354</v>
@@ -5028,19 +5028,19 @@
         <v>978126</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>961784</v>
+        <v>961755</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>990654</v>
+        <v>991187</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.915801801084177</v>
+        <v>0.9158018010841772</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9005009963332082</v>
+        <v>0.9004739370534141</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9275318256445961</v>
+        <v>0.9280309561086715</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2260</v>
@@ -5049,19 +5049,19 @@
         <v>1984447</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1965825</v>
+        <v>1965648</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2001397</v>
+        <v>2001683</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9380184729242095</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9292165718040301</v>
+        <v>0.9291328120408855</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9460306745298692</v>
+        <v>0.9461660864047116</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>35562</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24820</v>
+        <v>26291</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49207</v>
+        <v>49510</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.04444761567161235</v>
+        <v>0.04444761567161236</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03102139201391311</v>
+        <v>0.03286090414452925</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06150241662519772</v>
+        <v>0.06188115915268497</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>96</v>
@@ -5174,19 +5174,19 @@
         <v>66226</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>54827</v>
+        <v>54665</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>82160</v>
+        <v>81084</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.08183874515606751</v>
+        <v>0.08183874515606754</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06775224760547335</v>
+        <v>0.06755128279008597</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1015282384072237</v>
+        <v>0.1001994810900913</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>134</v>
@@ -5195,19 +5195,19 @@
         <v>101788</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>87053</v>
+        <v>83824</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>122197</v>
+        <v>120436</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06324943357414545</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05409319271254531</v>
+        <v>0.05208689085557044</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07593134675141311</v>
+        <v>0.07483662559782737</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>764522</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>750877</v>
+        <v>750574</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>775264</v>
+        <v>773793</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9555523843283875</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9384975833748022</v>
+        <v>0.9381188408473151</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9689786079860869</v>
+        <v>0.9671390958554709</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>947</v>
@@ -5245,19 +5245,19 @@
         <v>743004</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>727070</v>
+        <v>728146</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>754403</v>
+        <v>754565</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9181612548439324</v>
+        <v>0.9181612548439325</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8984717615927764</v>
+        <v>0.8998005189099085</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9322477523945266</v>
+        <v>0.9324487172099141</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1582</v>
@@ -5266,19 +5266,19 @@
         <v>1507527</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1487118</v>
+        <v>1488879</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1522262</v>
+        <v>1525491</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9367505664258545</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.924068653248587</v>
+        <v>0.9251633744021727</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.945906807287455</v>
+        <v>0.9479131091444298</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>41670</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31059</v>
+        <v>31446</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>56460</v>
+        <v>56961</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.042135365031276</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03140500889428684</v>
+        <v>0.03179641383144789</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05709023007644226</v>
+        <v>0.05759629298031788</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>161</v>
@@ -5391,19 +5391,19 @@
         <v>103687</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>86792</v>
+        <v>89050</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>119768</v>
+        <v>121652</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0929328465225443</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07779045115589386</v>
+        <v>0.07981375362684533</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1073462455537549</v>
+        <v>0.1090341784278054</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>213</v>
@@ -5412,19 +5412,19 @@
         <v>145357</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>126527</v>
+        <v>125815</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>167578</v>
+        <v>166174</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06906372437231452</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06011670297670908</v>
+        <v>0.05977863515347608</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07962153028072672</v>
+        <v>0.07895445511482124</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>947297</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>932507</v>
+        <v>932006</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>957908</v>
+        <v>957521</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.957864634968724</v>
+        <v>0.9578646349687242</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9429097699235579</v>
+        <v>0.9424037070196821</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9685949911057132</v>
+        <v>0.9682035861685522</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1396</v>
@@ -5462,19 +5462,19 @@
         <v>1012033</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>995952</v>
+        <v>994068</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1028928</v>
+        <v>1026670</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9070671534774558</v>
+        <v>0.9070671534774557</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.892653754446245</v>
+        <v>0.8909658215721946</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9222095488441059</v>
+        <v>0.9201862463731547</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2349</v>
@@ -5483,19 +5483,19 @@
         <v>1959329</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1937108</v>
+        <v>1938512</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1978159</v>
+        <v>1978871</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9309362756276853</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9203784697192732</v>
+        <v>0.9210455448851789</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9398832970232907</v>
+        <v>0.9402213648465239</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>149565</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>125654</v>
+        <v>127424</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>172278</v>
+        <v>174224</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04240229853486309</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03562357527453462</v>
+        <v>0.03612528513353642</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04884153538639274</v>
+        <v>0.04939330593172553</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>559</v>
@@ -5608,19 +5608,19 @@
         <v>328924</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>302336</v>
+        <v>302376</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>356213</v>
+        <v>359236</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08829128381034021</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0811544810072912</v>
+        <v>0.08116516470477296</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09561634275867957</v>
+        <v>0.09642768722399776</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>751</v>
@@ -5629,19 +5629,19 @@
         <v>478489</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>443025</v>
+        <v>446890</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>515581</v>
+        <v>518788</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.06597369215231894</v>
+        <v>0.06597369215231895</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06108403310621778</v>
+        <v>0.06161691223665149</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07108793492571847</v>
+        <v>0.07153012424160966</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3377714</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3355001</v>
+        <v>3353055</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3401625</v>
+        <v>3399855</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.957597701465137</v>
+        <v>0.9575977014651369</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9511584646136071</v>
+        <v>0.9506066940682744</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9643764247254654</v>
+        <v>0.9638747148664635</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4790</v>
@@ -5679,19 +5679,19 @@
         <v>3396518</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3369229</v>
+        <v>3366206</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3423106</v>
+        <v>3423066</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9117087161896598</v>
+        <v>0.9117087161896599</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9043836572413205</v>
+        <v>0.9035723127760023</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9188455189927088</v>
+        <v>0.918834835295227</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7969</v>
@@ -5700,19 +5700,19 @@
         <v>6774232</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6737140</v>
+        <v>6733933</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6809696</v>
+        <v>6805831</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9340263078476813</v>
+        <v>0.934026307847681</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9289120650742816</v>
+        <v>0.9284698757583904</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9389159668937821</v>
+        <v>0.9383830877633481</v>
       </c>
     </row>
     <row r="18">
